--- a/data/type9.xlsx
+++ b/data/type9.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="32000" windowHeight="13660"/>
+    <workbookView windowWidth="30240" windowHeight="11500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1201,7 +1201,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="2"/>
@@ -1222,7 +1222,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1244,7 +1244,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
